--- a/OW_3/dane/dane_3d.xlsx
+++ b/OW_3/dane/dane_3d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szyme\Documents\Studia\IX Semestr\Optymalizacja wielokryterialna\OW_SS_KK_LS\OW_3\dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD57E18-CBC6-475A-9F7E-30692155C27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E23FC5B-5467-4788-999E-1675A9F9CC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2030" yWindow="800" windowWidth="15820" windowHeight="10310" activeTab="1" xr2:uid="{070E1390-B346-4D6E-9655-687A5B922D18}"/>
+    <workbookView xWindow="1630" yWindow="730" windowWidth="15820" windowHeight="10310" xr2:uid="{070E1390-B346-4D6E-9655-687A5B922D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4BE1F9-D1DA-4BDC-B1E4-D7BAEE8C7B35}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351DE796-911F-4EB2-B892-48C8FCDA5AFE}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/OW_3/dane/dane_3d.xlsx
+++ b/OW_3/dane/dane_3d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szyme\Documents\Studia\IX Semestr\Optymalizacja wielokryterialna\OW_SS_KK_LS\OW_3\dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E23FC5B-5467-4788-999E-1675A9F9CC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5493649-9CCB-4E8B-9AAF-E5D3D6DCDE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1630" yWindow="730" windowWidth="15820" windowHeight="10310" xr2:uid="{070E1390-B346-4D6E-9655-687A5B922D18}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{070E1390-B346-4D6E-9655-687A5B922D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4BE1F9-D1DA-4BDC-B1E4-D7BAEE8C7B35}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351DE796-911F-4EB2-B892-48C8FCDA5AFE}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
